--- a/biology/Zoologie/Hexarthrius_forsteri/Hexarthrius_forsteri.xlsx
+++ b/biology/Zoologie/Hexarthrius_forsteri/Hexarthrius_forsteri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hexarthrius forsteri est une espèce de coléoptères de la famille des Lucanidae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,21 +551,126 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Hexarthrius forsteri (Hope, 1840)[1].
-L'espèce a été initialement classée dans le genre Lucanus sous le protonyme Lucanus forsteri Hope, 1840[1],[2].
-Hexarthrius forsteri a pour synonyme[1] :
-Lucanus forsteri Hope, 1840
-Liste des sous-espèces
-Selon GBIF       (6 avril 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Hexarthrius forsteri (Hope, 1840).
+L'espèce a été initialement classée dans le genre Lucanus sous le protonyme Lucanus forsteri Hope, 1840,.
+Hexarthrius forsteri a pour synonyme :
+Lucanus forsteri Hope, 1840</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hexarthrius_forsteri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hexarthrius_forsteri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (6 avril 2024) :
 Hexarthrius forsteri forsteri (Hope, 1840)
 Hexarthrius forsteri kiyotamii Nagai, 2000
-Hexarthrius forsteri nyishi Okuda &amp; Maeda, 2016
-Étymologie
-Son épithète spécifique, forsteri, lui a été donnée en l'honneur du botaniste britannique Edward Forster (1765-1849), alors trésorier de la Linnean Society of London et grand promoteur des sciences naturelles[2].
-Publication originale
-(en + la) Rev. Frederick William Hope, « Descriptions of some Nondescript Insects from Assam, chiefly collected by William Griffith, Esq., F.L.S., Assistant- Surgeon in the Madras Medical Service, and attached to the late Scientific Mission to Assam », Transactions of the Linnean Society of London, Royaume-Uni, vol. 18,‎ 3 novembre 1840, p. 587-600 (ISSN 1945-9432, e-ISSN 1945-9335, lire en ligne, consulté le 6 avril 2024).</t>
+Hexarthrius forsteri nyishi Okuda &amp; Maeda, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hexarthrius_forsteri</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hexarthrius_forsteri</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, forsteri, lui a été donnée en l'honneur du botaniste britannique Edward Forster (1765-1849), alors trésorier de la Linnean Society of London et grand promoteur des sciences naturelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hexarthrius_forsteri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hexarthrius_forsteri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en + la) Rev. Frederick William Hope, « Descriptions of some Nondescript Insects from Assam, chiefly collected by William Griffith, Esq., F.L.S., Assistant- Surgeon in the Madras Medical Service, and attached to the late Scientific Mission to Assam », Transactions of the Linnean Society of London, Royaume-Uni, vol. 18,‎ 3 novembre 1840, p. 587-600 (ISSN 1945-9432, e-ISSN 1945-9335, lire en ligne, consulté le 6 avril 2024).</t>
         </is>
       </c>
     </row>
